--- a/similarities/split_global/harmonic_similarity_timestamps_161.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_161.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,718 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:03.599751', '0:00:06.705328')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
+          <t>('0:00:13.660000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:00.560000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:14.565283', '0:00:18.936988'), ('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:05.020000', '0:01:08.080000'), ('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:05.571955', '0:00:28.079297')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=14.565283', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=65.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D', 'B:min', 'E:min'], ['D/3', 'G', 'D']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.840000', '0:00:16.860000'), ('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:02.612267', '0:00:17.443474')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:22.862248', '0:00:25.887570'), ('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=8.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=22.862248', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['Bb:min', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>['A:min/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.900000', '0:00:07.720000')]</t>
+          <t>('0:00:03.650000', '0:00:06.290000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
+          <t>('0:00:08.080000', '0:00:16.640000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=1.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=3.65</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.38']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=8.08</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>jaah_65</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E:min7', 'A:7', 'A:min7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['F:min7', 'Bb:7', 'Bb:min7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:50.680000', '0:00:55.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:27.650000', '0:00:29.490000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=50.68</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=27.65</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>isophonics_245</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_26</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:min7', 'Eb:7'], ['Bb:min7', 'Eb:7', 'Ab:maj7']]</t>
+          <t>['F#:min', 'B:min', 'F#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:min7', 'D:7'], ['A:min7', 'D:7', 'G:maj7']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:22.570000', '0:00:28.190000'), ('0:01:46.710000', '0:01:52.340000')]</t>
+          <t>('0:00:36.732085', '0:00:41.248366')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:28.130000', '0:00:30.620000'), ('0:00:28.950000', '0:00:32.300000')]</t>
+          <t>('0:00:09.560000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=22.57', 'https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=106.71']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=28.13', 'https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=28.95']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=9.56</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['A:7', 'D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Bb:7', 'Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:38.620000', '0:00:44.060000')]</t>
+          <t>('0:00:18.434000', '0:00:23.353000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:16.630000', '0:01:27.460000')]</t>
+          <t>('0:02:14.260000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=18.434</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=76.63']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=134.26</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.300000', '0:00:12.960000')]</t>
+          <t>('0:01:36.120000', '0:01:43.440000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:01:29.740000', '0:01:36.120000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=96.12</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=89.74</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:16.341609', '0:00:25.141972')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=16.341609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:7']]</t>
+          <t>['F:min', 'C', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>['D:min', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:14.980000', '0:00:22.790000')]</t>
+          <t>('0:00:40.124000', '0:00:46.220000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.880000', '0:00:20.150000')]</t>
+          <t>('0:00:42.127369', '0:00:52.576349')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=14.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=40.124</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=16.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=42.127369</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>isophonics_60</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C', 'G', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:40.370000')]</t>
+          <t>('0:00:58.990317', '0:01:03.680748')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:18.220000', '0:00:23.380000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-60#t=58.990317</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=18.22</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['G:7', 'C:min', 'D:hdim7/C']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min'], ['C:7', 'F:min', 'G:hdim7']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000'), ('0:00:21.420000', '0:00:28.060000')]</t>
+          <t>('0:01:37.640000', '0:01:51')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:05.900000'), ('0:01:05.820000', '0:01:17.640000')]</t>
+          <t>('0:01:12.272131', '0:01:19.249727')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=21.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=97.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6', 'https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=65.82']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=72.272131</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:23.600000', '0:00:40.320000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:05.672040', '0:00:08.841564')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=23.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
